--- a/facture.xlsx
+++ b/facture.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Client:</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>N°</t>
-  </si>
-  <si>
-    <t>Signature</t>
   </si>
   <si>
     <r>
@@ -115,6 +112,18 @@
   </si>
   <si>
     <t>Facture</t>
+  </si>
+  <si>
+    <t>Timbre fiscale :</t>
+  </si>
+  <si>
+    <t>Remise :</t>
+  </si>
+  <si>
+    <t>Signature et cachet</t>
+  </si>
+  <si>
+    <t>dt</t>
   </si>
 </sst>
 </file>
@@ -439,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -491,6 +500,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -515,47 +537,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -869,69 +870,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" ht="35.25">
-      <c r="C7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="C7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:9" ht="18.75">
       <c r="E8" s="11" t="s">
@@ -942,33 +943,33 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="18.75">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:9" ht="18.75">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
       <c r="I11" s="12"/>
     </row>
     <row r="14" spans="1:9" ht="23.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="4" t="s">
@@ -978,10 +979,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>3</v>
@@ -990,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75">
@@ -1112,9 +1113,9 @@
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1123,91 +1124,126 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
+      <c r="G30" s="38" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="41" t="s">
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="15.75">
+      <c r="D33" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="16.5" thickBot="1">
+      <c r="D34" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.25">
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.25">
-      <c r="C36" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
+      <c r="E34" s="37">
+        <f>SUM(E31+E32+E33)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="37"/>
+      <c r="G34" s="40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="15" customHeight="1">
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="2:7" ht="15" customHeight="1">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="2:7" ht="15" customHeight="1">
       <c r="C37" s="13"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
-      <c r="C38" s="13"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="2:7" ht="15" customHeight="1">
+      <c r="B38" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+    </row>
+    <row r="39" spans="2:7" ht="15" customHeight="1">
       <c r="C39" s="13"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" spans="2:7" ht="15" customHeight="1">
       <c r="C40" s="13"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+    </row>
+    <row r="41" spans="2:7" ht="15" customHeight="1">
       <c r="C41" s="13"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
-      <c r="C42" s="13"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="D36:E42"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="A1:C6"/>
     <mergeCell ref="D1:G6"/>
     <mergeCell ref="C7:E7"/>
@@ -1215,6 +1251,9 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="D38:E45"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
